--- a/Screens/MeSonCacatoErCazzo/SNR.xlsx
+++ b/Screens/MeSonCacatoErCazzo/SNR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucio97/Documents/MATLAB/Progetto Drone/Screens/MeSonCacatoErCazzo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE49B612-DDC9-2C42-9CA6-C59AE59A5FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE64EFC-E338-A74E-9C9E-861E134472A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="17160" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -543,7 +543,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1514,8 +1514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U513"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A510" workbookViewId="0">
-      <selection activeCell="U518" sqref="U518"/>
+    <sheetView tabSelected="1" topLeftCell="E516" zoomScale="99" workbookViewId="0">
+      <selection activeCell="A512" sqref="A512"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
